--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1831376.515574772</v>
+        <v>-1833305.277478346</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X2" t="n">
-        <v>69.82950881474474</v>
+        <v>274.8776309323905</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>88.925364904256</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>240.6956301820244</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>94.25736106477139</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>331.2414836209392</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>331.2414836209385</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>140.8593896889722</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>331.2414836209392</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>14.97132048399258</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>331.2414836209385</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>129.0507428586465</v>
       </c>
       <c r="S5" t="n">
-        <v>201.4679039890863</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.6450715103052</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>184.9146864108784</v>
+        <v>331.2414836209385</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>107.5172612382966</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>89.14820727672678</v>
       </c>
       <c r="S6" t="n">
-        <v>57.50733623163157</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9297160451498</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>82.84875757593913</v>
       </c>
       <c r="K7" t="n">
-        <v>4.997638917232081</v>
+        <v>4.997638917232219</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>221.4258201006746</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>9.111642043030992</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>147.6887045677655</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>212.1370054753146</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>67.87096028541164</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>54.63122185700565</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274091</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>52.59056615842516</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>73.37712102925532</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>118.7420378204726</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>49.12199829633393</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>60.51808258596495</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>26.15603929387822</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.16481274941201</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>124.1444579481076</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>123.8662796794402</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2524,22 +2524,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>189.568676130652</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.2303518676587</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C28" t="n">
-        <v>139.6451927843493</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0138447039338</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>117.8194197086527</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.891940149099</v>
+        <v>138.8919401490991</v>
       </c>
       <c r="H28" t="n">
         <v>121.3122000532576</v>
       </c>
       <c r="I28" t="n">
-        <v>82.81761714999341</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.36272408951422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>170.3191816693247</v>
+        <v>57.5194735881895</v>
       </c>
       <c r="T28" t="n">
-        <v>28.06981329533744</v>
+        <v>193.9459327441107</v>
       </c>
       <c r="U28" t="n">
         <v>258.6357240842988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>224.5360150095495</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>258.9213700223125</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>198.1080270747586</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.9830250378162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.6451927843493</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8323343322906</v>
+        <v>118.8323343322907</v>
       </c>
       <c r="F31" t="n">
-        <v>117.8194197086527</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>10.43635255612539</v>
       </c>
       <c r="I31" t="n">
-        <v>62.98302994793753</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.36272408951427</v>
       </c>
       <c r="S31" t="n">
-        <v>170.3191816693247</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>193.9459327441107</v>
@@ -3007,16 +3007,16 @@
         <v>258.6357240842988</v>
       </c>
       <c r="V31" t="n">
-        <v>224.5360150095494</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9213700223124</v>
+        <v>258.9213700223125</v>
       </c>
       <c r="X31" t="n">
         <v>198.1080270747586</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>190.9830250378163</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
@@ -3281,7 +3281,7 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I35" t="n">
         <v>13.64724492310009</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555818</v>
       </c>
       <c r="T35" t="n">
         <v>140.3508982088613</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338378</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3521,7 +3521,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555822</v>
       </c>
       <c r="T38" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404931</v>
       </c>
       <c r="W38" t="n">
         <v>281.1090785877724</v>
@@ -3569,7 +3569,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W41" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877712</v>
       </c>
       <c r="X41" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.1060485264107</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492309883</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555818</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088613</v>
@@ -4043,7 +4043,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.1060485264103</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>809.3643835117314</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="C2" t="n">
-        <v>809.3643835117314</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="D2" t="n">
-        <v>530.4184100750088</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="E2" t="n">
-        <v>251.4724366382861</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
@@ -4367,13 +4367,13 @@
         <v>879.8992409003624</v>
       </c>
       <c r="W2" t="n">
-        <v>879.8992409003624</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="X2" t="n">
-        <v>809.3643835117314</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="Y2" t="n">
-        <v>809.3643835117314</v>
+        <v>323.2990948046595</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407.3850896439446</v>
+        <v>481.7348441218843</v>
       </c>
       <c r="C3" t="n">
-        <v>407.3850896439446</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="D3" t="n">
-        <v>258.4506799826934</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="E3" t="n">
-        <v>258.4506799826934</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F3" t="n">
-        <v>111.9161220095783</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="G3" t="n">
         <v>22.09252109618843</v>
@@ -4416,16 +4416,16 @@
         <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>564.7342926608062</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N3" t="n">
-        <v>838.129241226138</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="V3" t="n">
-        <v>869.473946577679</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="W3" t="n">
-        <v>615.2365898494775</v>
+        <v>689.4951428868383</v>
       </c>
       <c r="X3" t="n">
-        <v>407.3850896439446</v>
+        <v>689.4951428868383</v>
       </c>
       <c r="Y3" t="n">
-        <v>407.3850896439446</v>
+        <v>481.7348441218843</v>
       </c>
     </row>
     <row r="4">
@@ -4507,25 +4507,25 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
         <v>22.09252109618843</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.2092218259699</v>
+        <v>860.0242915750823</v>
       </c>
       <c r="C5" t="n">
-        <v>376.2092218259699</v>
+        <v>525.4369343822152</v>
       </c>
       <c r="D5" t="n">
-        <v>376.2092218259699</v>
+        <v>383.1547225751726</v>
       </c>
       <c r="E5" t="n">
-        <v>376.2092218259699</v>
+        <v>383.1547225751726</v>
       </c>
       <c r="F5" t="n">
-        <v>41.62186463310199</v>
+        <v>376.2092218259691</v>
       </c>
       <c r="G5" t="n">
-        <v>26.49931868967514</v>
+        <v>361.0866758825422</v>
       </c>
       <c r="H5" t="n">
-        <v>26.49931868967514</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="I5" t="n">
-        <v>26.49931868967514</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="J5" t="n">
-        <v>42.51684241306793</v>
+        <v>42.51684241306759</v>
       </c>
       <c r="K5" t="n">
-        <v>187.2677626074277</v>
+        <v>187.267762607427</v>
       </c>
       <c r="L5" t="n">
-        <v>419.1207064026818</v>
+        <v>419.1207064026806</v>
       </c>
       <c r="M5" t="n">
-        <v>693.7083251274855</v>
+        <v>693.7083251274839</v>
       </c>
       <c r="N5" t="n">
-        <v>958.1070610499606</v>
+        <v>958.1070610499587</v>
       </c>
       <c r="O5" t="n">
-        <v>1162.583652085456</v>
+        <v>1162.583652085453</v>
       </c>
       <c r="P5" t="n">
-        <v>1299.425308893587</v>
+        <v>1299.425308893585</v>
       </c>
       <c r="Q5" t="n">
-        <v>1324.965934483757</v>
+        <v>1324.965934483754</v>
       </c>
       <c r="R5" t="n">
-        <v>1324.965934483757</v>
+        <v>1194.611648767949</v>
       </c>
       <c r="S5" t="n">
-        <v>1121.463001161447</v>
+        <v>1194.611648767949</v>
       </c>
       <c r="T5" t="n">
-        <v>897.5790905449776</v>
+        <v>1194.611648767949</v>
       </c>
       <c r="U5" t="n">
-        <v>897.5790905449776</v>
+        <v>1194.611648767949</v>
       </c>
       <c r="V5" t="n">
-        <v>897.5790905449776</v>
+        <v>1194.611648767949</v>
       </c>
       <c r="W5" t="n">
-        <v>897.5790905449776</v>
+        <v>1194.611648767949</v>
       </c>
       <c r="X5" t="n">
-        <v>710.7965790188377</v>
+        <v>860.0242915750823</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.7965790188377</v>
+        <v>860.0242915750823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.6587706106239</v>
+        <v>200.9523479708021</v>
       </c>
       <c r="C6" t="n">
-        <v>481.205741329497</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="D6" t="n">
-        <v>332.2713316682457</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="E6" t="n">
-        <v>173.0338766627902</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="F6" t="n">
-        <v>26.49931868967514</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="G6" t="n">
-        <v>26.49931868967514</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="H6" t="n">
-        <v>26.49931868967514</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="I6" t="n">
-        <v>26.49931868967514</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="J6" t="n">
-        <v>42.345866405302</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="K6" t="n">
-        <v>196.0509835671031</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="L6" t="n">
-        <v>464.1308782675602</v>
+        <v>294.5792133901319</v>
       </c>
       <c r="M6" t="n">
-        <v>614.7120934664454</v>
+        <v>622.5082821748611</v>
       </c>
       <c r="N6" t="n">
-        <v>942.6411622511753</v>
+        <v>726.4752373663887</v>
       </c>
       <c r="O6" t="n">
-        <v>1233.162507731468</v>
+        <v>1016.996582846682</v>
       </c>
       <c r="P6" t="n">
-        <v>1233.162507731468</v>
+        <v>1233.162507731466</v>
       </c>
       <c r="Q6" t="n">
-        <v>1324.965934483757</v>
+        <v>1324.965934483754</v>
       </c>
       <c r="R6" t="n">
-        <v>1324.965934483757</v>
+        <v>1234.917240264838</v>
       </c>
       <c r="S6" t="n">
-        <v>1266.877716067967</v>
+        <v>1234.917240264838</v>
       </c>
       <c r="T6" t="n">
-        <v>1266.877716067967</v>
+        <v>1234.917240264838</v>
       </c>
       <c r="U6" t="n">
-        <v>1266.877716067967</v>
+        <v>1006.705405875798</v>
       </c>
       <c r="V6" t="n">
-        <v>1031.725607836225</v>
+        <v>771.5532976440552</v>
       </c>
       <c r="W6" t="n">
-        <v>1031.725607836225</v>
+        <v>517.3159409158536</v>
       </c>
       <c r="X6" t="n">
-        <v>823.8741076306919</v>
+        <v>517.3159409158536</v>
       </c>
       <c r="Y6" t="n">
-        <v>823.8741076306919</v>
+        <v>309.5556421508997</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="C7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="D7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="E7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="F7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="G7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="H7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="I7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="J7" t="n">
-        <v>31.54743880809138</v>
+        <v>31.54743880809146</v>
       </c>
       <c r="K7" t="n">
-        <v>26.49931868967514</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="L7" t="n">
-        <v>75.69444867730941</v>
+        <v>75.69444867730917</v>
       </c>
       <c r="M7" t="n">
-        <v>137.9529386775775</v>
+        <v>137.9529386775771</v>
       </c>
       <c r="N7" t="n">
-        <v>204.1656773620596</v>
+        <v>204.165677362059</v>
       </c>
       <c r="O7" t="n">
-        <v>249.3075628649922</v>
+        <v>249.3075628649914</v>
       </c>
       <c r="P7" t="n">
-        <v>264.4135621855718</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="Q7" t="n">
-        <v>264.4135621855718</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="R7" t="n">
-        <v>264.4135621855718</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="S7" t="n">
-        <v>40.75111763943582</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="T7" t="n">
-        <v>31.54743880809138</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="U7" t="n">
-        <v>31.54743880809138</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="V7" t="n">
-        <v>31.54743880809138</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="W7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="X7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.54743880809138</v>
+        <v>115.2330525211613</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4838,16 +4838,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1241.158393318536</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1241.158393318536</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="9">
@@ -4881,7 +4881,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
         <v>266.206002764199</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>245.45494510253</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216475</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.4801130615102</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C13" t="n">
-        <v>616.5439301336033</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D13" t="n">
-        <v>466.4272907212676</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>318.5141971388745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1424.797966487947</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1424.797966487947</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1201.012551277453</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>911.8839124910107</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="Y13" t="n">
-        <v>967.12857789175</v>
+        <v>657.1994242851239</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,10 +5279,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.1357418247861</v>
+        <v>613.8011874802286</v>
       </c>
       <c r="C16" t="n">
-        <v>795.1995588968792</v>
+        <v>444.8650045523217</v>
       </c>
       <c r="D16" t="n">
-        <v>795.1995588968792</v>
+        <v>294.748365139986</v>
       </c>
       <c r="E16" t="n">
-        <v>647.2864653144861</v>
+        <v>146.8352715575929</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>146.8352715575929</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>146.8352715575929</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247861</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247861</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247861</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247861</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247861</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.1357418247861</v>
+        <v>795.4496523104683</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5540,19 +5540,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790662</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2302.237516093322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.2811958984814</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1326.711790770269</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1326.711790770269</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.711790770269</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V19" t="n">
-        <v>1326.711790770269</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W19" t="n">
-        <v>1326.711790770269</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.722239872251</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.9296607287212</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>973.0255547109412</v>
+        <v>192.3330639344394</v>
       </c>
       <c r="C22" t="n">
-        <v>804.0893717830343</v>
+        <v>192.3330639344394</v>
       </c>
       <c r="D22" t="n">
-        <v>653.9727323706985</v>
+        <v>192.3330639344394</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>192.3330639344394</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>192.3330639344394</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U22" t="n">
-        <v>1262.442724747902</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="V22" t="n">
-        <v>1262.442724747902</v>
+        <v>420.3226148324567</v>
       </c>
       <c r="W22" t="n">
-        <v>973.0255547109412</v>
+        <v>420.3226148324567</v>
       </c>
       <c r="X22" t="n">
-        <v>973.0255547109412</v>
+        <v>192.3330639344394</v>
       </c>
       <c r="Y22" t="n">
-        <v>973.0255547109412</v>
+        <v>192.3330639344394</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>565.9270610048577</v>
+        <v>688.5786845598166</v>
       </c>
       <c r="C25" t="n">
-        <v>565.9270610048577</v>
+        <v>519.6425016319097</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>519.6425016319097</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>519.6425016319097</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>372.7525541339993</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1196.357655876645</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.357655876645</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1196.357655876645</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>1196.357655876645</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W25" t="n">
-        <v>1196.357655876645</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X25" t="n">
-        <v>968.3681049786276</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="Y25" t="n">
-        <v>747.5755258350974</v>
+        <v>688.5786845598166</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6230,7 +6230,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6309,13 +6309,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>826.0051869646148</v>
+        <v>360.0495563111515</v>
       </c>
       <c r="C28" t="n">
-        <v>684.9494366773934</v>
+        <v>360.0495563111515</v>
       </c>
       <c r="D28" t="n">
-        <v>562.713229905743</v>
+        <v>360.0495563111515</v>
       </c>
       <c r="E28" t="n">
-        <v>562.713229905743</v>
+        <v>360.0495563111515</v>
       </c>
       <c r="F28" t="n">
-        <v>443.7037150485181</v>
+        <v>360.0495563111515</v>
       </c>
       <c r="G28" t="n">
-        <v>303.4088260090241</v>
+        <v>219.7546672716572</v>
       </c>
       <c r="H28" t="n">
-        <v>180.871250197653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>136.9253959553315</v>
+        <v>136.9253959553314</v>
       </c>
       <c r="K28" t="n">
-        <v>314.4364122310787</v>
+        <v>314.4364122310786</v>
       </c>
       <c r="L28" t="n">
-        <v>589.4740692733437</v>
+        <v>589.4740692733436</v>
       </c>
       <c r="M28" t="n">
-        <v>888.3664240716621</v>
+        <v>888.366424071662</v>
       </c>
       <c r="N28" t="n">
         <v>1186.236145130345</v>
@@ -6403,31 +6403,31 @@
         <v>1651.362111803697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="R28" t="n">
-        <v>1634.3264960095</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="S28" t="n">
-        <v>1462.286918565737</v>
+        <v>1659.42068843508</v>
       </c>
       <c r="T28" t="n">
-        <v>1433.93357180277</v>
+        <v>1463.515705865271</v>
       </c>
       <c r="U28" t="n">
-        <v>1172.685365657014</v>
+        <v>1202.267499719514</v>
       </c>
       <c r="V28" t="n">
-        <v>1172.685365657014</v>
+        <v>975.463444154313</v>
       </c>
       <c r="W28" t="n">
-        <v>1172.685365657014</v>
+        <v>713.9267067580379</v>
       </c>
       <c r="X28" t="n">
-        <v>1172.685365657014</v>
+        <v>513.8175885007058</v>
       </c>
       <c r="Y28" t="n">
-        <v>979.7732191541691</v>
+        <v>513.8175885007058</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>399.878489428853</v>
+        <v>368.8472729479279</v>
       </c>
       <c r="C31" t="n">
-        <v>399.878489428853</v>
+        <v>227.7915226607063</v>
       </c>
       <c r="D31" t="n">
-        <v>399.878489428853</v>
+        <v>227.7915226607063</v>
       </c>
       <c r="E31" t="n">
-        <v>279.8458284871452</v>
+        <v>107.7588617189986</v>
       </c>
       <c r="F31" t="n">
-        <v>160.8363136299203</v>
+        <v>107.7588617189986</v>
       </c>
       <c r="G31" t="n">
-        <v>160.8363136299203</v>
+        <v>107.7588617189986</v>
       </c>
       <c r="H31" t="n">
-        <v>160.8363136299203</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>136.9253959553315</v>
+        <v>136.9253959553314</v>
       </c>
       <c r="K31" t="n">
-        <v>314.4364122310787</v>
+        <v>314.4364122310786</v>
       </c>
       <c r="L31" t="n">
-        <v>589.4740692733437</v>
+        <v>589.4740692733435</v>
       </c>
       <c r="M31" t="n">
-        <v>888.3664240716623</v>
+        <v>888.3664240716621</v>
       </c>
       <c r="N31" t="n">
-        <v>1186.236145130346</v>
+        <v>1186.236145130345</v>
       </c>
       <c r="O31" t="n">
         <v>1447.436735166878</v>
@@ -6640,31 +6640,31 @@
         <v>1651.362111803697</v>
       </c>
       <c r="Q31" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="R31" t="n">
-        <v>1717.521166806989</v>
+        <v>1634.326496009499</v>
       </c>
       <c r="S31" t="n">
-        <v>1545.481589363226</v>
+        <v>1634.326496009499</v>
       </c>
       <c r="T31" t="n">
-        <v>1349.576606793418</v>
+        <v>1438.42151343969</v>
       </c>
       <c r="U31" t="n">
-        <v>1088.328400647662</v>
+        <v>1177.173307293934</v>
       </c>
       <c r="V31" t="n">
-        <v>861.5243450824601</v>
+        <v>1177.173307293934</v>
       </c>
       <c r="W31" t="n">
-        <v>599.9876076861849</v>
+        <v>915.6365698976589</v>
       </c>
       <c r="X31" t="n">
-        <v>399.878489428853</v>
+        <v>715.5274516403269</v>
       </c>
       <c r="Y31" t="n">
-        <v>399.878489428853</v>
+        <v>522.6153051374822</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>1925.513372462139</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
         <v>1335.925338995059</v>
       </c>
       <c r="E35" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872888</v>
+        <v>676.7913636872896</v>
       </c>
       <c r="G35" t="n">
-        <v>329.4856801922879</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>177.4083093538498</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>550.3528260602878</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L35" t="n">
-        <v>1251.956982104086</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M35" t="n">
-        <v>1604.214937666072</v>
+        <v>1922.078928549017</v>
       </c>
       <c r="N35" t="n">
-        <v>2399.760058770103</v>
+        <v>2448.921803300103</v>
       </c>
       <c r="O35" t="n">
-        <v>3105.783119794299</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P35" t="n">
-        <v>3670.683085050102</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q35" t="n">
-        <v>3807.485832605499</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R35" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T35" t="n">
         <v>3600.244041813157</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176631</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="36">
@@ -7002,19 +7002,19 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F36" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G36" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H36" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044723</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
         <v>653.361187648985</v>
@@ -7032,10 +7032,10 @@
         <v>1816.849141718141</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q36" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147911</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424964</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001443</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F37" t="n">
-        <v>299.817365042275</v>
+        <v>299.8173650422748</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021367</v>
+        <v>200.4621344021365</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901211</v>
+        <v>118.8642169901209</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
-        <v>155.982980344364</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K37" t="n">
         <v>373.6189558173198</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567934</v>
       </c>
       <c r="M37" t="n">
         <v>1027.79888605232</v>
@@ -7117,28 +7117,28 @@
         <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
-        <v>1975.198453178347</v>
+        <v>1975.198453178346</v>
       </c>
       <c r="S37" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133939</v>
       </c>
       <c r="T37" t="n">
-        <v>1689.133209963487</v>
+        <v>1689.133209963486</v>
       </c>
       <c r="U37" t="n">
         <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W37" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963444</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928556</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872898</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G38" t="n">
         <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
         <v>344.8139583742029</v>
       </c>
       <c r="K38" t="n">
-        <v>547.3128584977794</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L38" t="n">
-        <v>835.4324121366317</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.708765856522</v>
+        <v>2144.761595724287</v>
       </c>
       <c r="N38" t="n">
-        <v>2428.253886960553</v>
+        <v>2507.333261660453</v>
       </c>
       <c r="O38" t="n">
-        <v>3105.783119794299</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P38" t="n">
-        <v>3670.683085050102</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.485832605499</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.44939017663</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873101</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.258029643028</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.612362421989</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486218</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F39" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G39" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H39" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>653.361187648985</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L39" t="n">
-        <v>900.1263155554491</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.446448835411</v>
+        <v>1281.843752318453</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.309076499444</v>
+        <v>2030.810682109832</v>
       </c>
       <c r="O39" t="n">
-        <v>1816.849141718141</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P39" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q39" t="n">
         <v>2602.506130567962</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026577</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C40" t="n">
         <v>538.2767724147916</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424969</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422756</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021373</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
         <v>155.9829803443641</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N40" t="n">
         <v>1365.793566308212</v>
@@ -7354,13 +7354,13 @@
         <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
-        <v>1975.198453178348</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
         <v>1844.098534133941</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
         <v>1468.824662217087</v>
@@ -7369,13 +7369,13 @@
         <v>1282.960265051241</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.363186054322</v>
+        <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963453</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928563</v>
+        <v>751.2212380928561</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872898</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G41" t="n">
         <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>177.4083093538498</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>700.8111679228796</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L41" t="n">
-        <v>988.9307215617318</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M41" t="n">
-        <v>1786.207075281623</v>
+        <v>2086.350137363937</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.752196385653</v>
+        <v>2448.921803300103</v>
       </c>
       <c r="O41" t="n">
-        <v>3287.775257409849</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P41" t="n">
-        <v>3670.683085050102</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.485832605499</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.44939017663</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873101</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.258029643028</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.612362421989</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
         <v>2243.293121486221</v>
@@ -7476,40 +7476,40 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F42" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G42" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H42" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044723</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K42" t="n">
-        <v>623.6081374473457</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L42" t="n">
-        <v>870.3732653538098</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M42" t="n">
-        <v>1177.693398633771</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N42" t="n">
-        <v>1507.556026297804</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O42" t="n">
-        <v>1787.096091516501</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P42" t="n">
-        <v>2307.396713252248</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q42" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026566</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147907</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424968</v>
+        <v>456.980224042496</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001447</v>
+        <v>377.887221500144</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422747</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021372</v>
+        <v>200.4621344021364</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173201</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567936</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
@@ -7588,7 +7588,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q43" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R43" t="n">
         <v>1975.198453178347</v>
@@ -7600,19 +7600,19 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W43" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963442</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928552</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C44" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995058</v>
       </c>
       <c r="E44" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436855</v>
       </c>
       <c r="F44" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872886</v>
       </c>
       <c r="G44" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922877</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402803</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>177.4083093538498</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K44" t="n">
-        <v>518.8190303073295</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L44" t="n">
-        <v>806.9385839461817</v>
+        <v>1347.485242004396</v>
       </c>
       <c r="M44" t="n">
-        <v>1604.214937666072</v>
+        <v>2144.761595724287</v>
       </c>
       <c r="N44" t="n">
-        <v>2399.760058770103</v>
+        <v>2507.333261660453</v>
       </c>
       <c r="O44" t="n">
-        <v>3105.783119794299</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P44" t="n">
-        <v>3670.683085050102</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.485832605499</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R44" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.44939017663</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873101</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W44" t="n">
-        <v>2869.258029643027</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.612362421989</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174677</v>
       </c>
       <c r="K45" t="n">
-        <v>623.6081374473457</v>
+        <v>266.7104780195276</v>
       </c>
       <c r="L45" t="n">
-        <v>870.3732653538098</v>
+        <v>688.4260841283376</v>
       </c>
       <c r="M45" t="n">
-        <v>1177.693398633771</v>
+        <v>995.7462174082993</v>
       </c>
       <c r="N45" t="n">
-        <v>1507.556026297804</v>
+        <v>1325.608845072332</v>
       </c>
       <c r="O45" t="n">
-        <v>1787.096091516501</v>
+        <v>1995.072606374992</v>
       </c>
       <c r="P45" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q45" t="n">
         <v>2602.506130567962</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026574</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424965</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.982980344364</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567928</v>
+        <v>688.7815720567935</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N46" t="n">
         <v>1365.793566308212</v>
@@ -7825,31 +7825,31 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T46" t="n">
-        <v>1689.133209963486</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V46" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W46" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963442</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>277.3705002792438</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>256.6777029392221</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>110.0844214862404</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>109.2075429097495</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>249.3064788559538</v>
+        <v>428.4457249022612</v>
       </c>
       <c r="N6" t="n">
-        <v>416.4642451451478</v>
+        <v>190.2398879802975</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>100.1133495643973</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498445</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,28 +9006,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>73.53204524669945</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>29.47535963978166</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>38.86002301949878</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,16 +9957,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>172.1672894776378</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>165.9305139544646</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>224.9319870457272</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>352.0185366259269</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165118</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>165.9305139544645</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>137.9682661355732</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>140.3149705352557</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>193.0796681033443</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>176.7176547498443</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>92.83048186450608</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>36.58723137453747</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583888</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>26.67901020245868</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.7918300712022</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>137.4027273976383</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>199.5536160951589</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>72.32875571396561</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>162.0928944504697</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>42.62728878393742</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>8.352133852951226</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.6451927843493</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.0138447039338</v>
       </c>
       <c r="E28" t="n">
-        <v>118.8323343322906</v>
+        <v>118.8323343322907</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.81761714999347</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>82.36272408951427</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>112.7997080811352</v>
       </c>
       <c r="T28" t="n">
-        <v>165.8761194487732</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>224.5360150095494</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9213700223124</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>198.1080270747586</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>190.9830250378163</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.2303518676587</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.6451927843493</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>121.0138447039338</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G31" t="n">
-        <v>138.891940149099</v>
+        <v>138.8919401490991</v>
       </c>
       <c r="H31" t="n">
-        <v>121.3122000532576</v>
+        <v>110.8758474971322</v>
       </c>
       <c r="I31" t="n">
-        <v>19.83458720205588</v>
+        <v>82.81761714999347</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.36272408951422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>170.3191816693247</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>224.5360150095495</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.9830250378162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26323,25 +26323,25 @@
         <v>97757.26493442721</v>
       </c>
       <c r="F2" t="n">
-        <v>97757.26493442726</v>
+        <v>97757.26493442724</v>
       </c>
       <c r="G2" t="n">
+        <v>97757.26493442725</v>
+      </c>
+      <c r="H2" t="n">
         <v>97757.26493442722</v>
-      </c>
-      <c r="H2" t="n">
-        <v>97757.26493442721</v>
       </c>
       <c r="I2" t="n">
         <v>97757.26493442722</v>
       </c>
       <c r="J2" t="n">
-        <v>99731.39963537225</v>
+        <v>99731.39963537226</v>
       </c>
       <c r="K2" t="n">
         <v>99731.39963537223</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
@@ -26366,13 +26366,13 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>60975.92555038814</v>
+        <v>60975.92555038731</v>
       </c>
       <c r="D3" t="n">
-        <v>359462.517329811</v>
+        <v>359462.5173298118</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.275352772026089e-11</v>
       </c>
       <c r="J3" t="n">
         <v>94335.99752256187</v>
       </c>
       <c r="K3" t="n">
-        <v>14177.10853800613</v>
+        <v>14177.10853800588</v>
       </c>
       <c r="L3" t="n">
-        <v>119246.0112699057</v>
+        <v>119246.011269906</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762899</v>
+        <v>69175.08933762908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22081.30265142285</v>
+        <v>22081.3026514228</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>299668.3554259909</v>
+        <v>299668.3554259911</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>43561.42148316554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43561.42148316555</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43561.42148316553</v>
+      </c>
+      <c r="H4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="F4" t="n">
-        <v>43561.42148316554</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43561.42148316551</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43561.42148316553</v>
-      </c>
       <c r="I4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="J4" t="n">
-        <v>52643.73274026383</v>
+        <v>52643.73274026382</v>
       </c>
       <c r="K4" t="n">
-        <v>52643.7327402638</v>
+        <v>52643.73274026381</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.20872448606</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.1297976678</v>
+        <v>99837.12979766782</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766789</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766789</v>
+        <v>99837.12979766786</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766791</v>
+        <v>99837.12979766786</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>55564.27390978094</v>
+        <v>55564.27390978088</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>94307.76723946971</v>
       </c>
       <c r="K5" t="n">
-        <v>94307.76723946973</v>
+        <v>94307.76723946971</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>81703.90096581174</v>
       </c>
       <c r="P5" t="n">
-        <v>81703.90096581173</v>
+        <v>81703.90096581174</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-391771.46816747</v>
       </c>
       <c r="C6" t="n">
-        <v>-313578.3336531245</v>
+        <v>-313578.3336531238</v>
       </c>
       <c r="D6" t="n">
-        <v>-531897.9705526148</v>
+        <v>-531897.9705526156</v>
       </c>
       <c r="E6" t="n">
-        <v>-562951.5189743513</v>
+        <v>-563048.9781003234</v>
       </c>
       <c r="F6" t="n">
-        <v>-37791.48249745493</v>
+        <v>-37888.94162342711</v>
       </c>
       <c r="G6" t="n">
-        <v>-37791.48249745494</v>
+        <v>-37888.94162342708</v>
       </c>
       <c r="H6" t="n">
-        <v>-37791.48249745496</v>
+        <v>-37888.94162342713</v>
       </c>
       <c r="I6" t="n">
-        <v>-37791.48249745497</v>
+        <v>-37888.94162342716</v>
       </c>
       <c r="J6" t="n">
-        <v>-141556.0978669232</v>
+        <v>-141614.0742988764</v>
       </c>
       <c r="K6" t="n">
-        <v>-61397.20888236743</v>
+        <v>-61455.18531432044</v>
       </c>
       <c r="L6" t="n">
-        <v>-180311.1045813816</v>
+        <v>-180311.1045813819</v>
       </c>
       <c r="M6" t="n">
-        <v>-148085.8988680731</v>
+        <v>-148085.8988680732</v>
       </c>
       <c r="N6" t="n">
-        <v>-78910.80953044424</v>
+        <v>-78910.80953044418</v>
       </c>
       <c r="O6" t="n">
-        <v>-100992.1121818671</v>
+        <v>-100992.112181867</v>
       </c>
       <c r="P6" t="n">
-        <v>-78910.80953044421</v>
+        <v>-78910.80953044417</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="K2" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964064</v>
@@ -26738,19 +26738,19 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.43998649668994</v>
+        <v>82.43998649668927</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>331.2414836209392</v>
+        <v>331.2414836209385</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513751</v>
       </c>
     </row>
   </sheetData>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.844190965032611e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427849</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.5302618153621</v>
+        <v>40.53026181536215</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427857</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>47.41872577756465</v>
+        <v>47.41872577756398</v>
       </c>
       <c r="D3" t="n">
-        <v>295.3036777203966</v>
+        <v>295.3036777203973</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>55.08496991858378</v>
+        <v>55.08496991858305</v>
       </c>
       <c r="D4" t="n">
-        <v>343.0457891336164</v>
+        <v>343.0457891336171</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858401</v>
+        <v>55.08496991858305</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336162</v>
+        <v>343.0457891336171</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968194</v>
+        <v>277.5841853968197</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.844190965032611e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427849</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858378</v>
+        <v>55.08496991858305</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336164</v>
+        <v>343.0457891336171</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X2" t="n">
-        <v>299.9015918637243</v>
+        <v>94.85346974607853</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.3428235094833</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27506,7 +27506,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27515,16 +27515,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>10.99935297889522</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>128.6586507951752</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115931</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.49235804254135</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>34.03140815006907</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>213.8236519317107</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>75.63456212077222</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>336.0806774455793</v>
+        <v>4.839193824640852</v>
       </c>
       <c r="I5" t="n">
-        <v>197.6989344772857</v>
+        <v>197.6989344772859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>129.0507428586464</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>201.4679039890863</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.6450715103052</v>
       </c>
       <c r="U5" t="n">
         <v>251.3191395453451</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>184.8164142675906</v>
+        <v>38.48961705753055</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>59.01592241157071</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.1661934186706</v>
@@ -27713,7 +27713,7 @@
         <v>110.522870177386</v>
       </c>
       <c r="I6" t="n">
-        <v>83.29140743633002</v>
+        <v>83.29140743633008</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>89.14820727672668</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>110.882124090947</v>
+        <v>168.3894603225786</v>
       </c>
       <c r="T6" t="n">
         <v>199.4499895666097</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9297160451498</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>160.9054297731156</v>
       </c>
       <c r="I7" t="n">
-        <v>150.9797950037984</v>
+        <v>150.9797950037985</v>
       </c>
       <c r="J7" t="n">
-        <v>82.84875757593905</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.7136052906942</v>
+        <v>73.7136052906943</v>
       </c>
       <c r="R7" t="n">
-        <v>170.6089950949952</v>
+        <v>170.6089950949953</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>221.4258201006747</v>
       </c>
       <c r="T7" t="n">
-        <v>218.1987540466694</v>
+        <v>227.3103960897004</v>
       </c>
       <c r="U7" t="n">
         <v>286.3109205053601</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>138.8342937688255</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>169.7933645969472</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>301.8601403930574</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>112.6155992416222</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="C28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="D28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="E28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="F28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="G28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="I28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="J28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="K28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="L28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="M28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="O28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="P28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="R28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="S28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="T28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="U28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="V28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="W28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="X28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="D31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="E31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="F31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="G31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="H31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="I31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="J31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="K31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="L31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="M31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="O31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="P31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="R31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="S31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="T31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="U31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="V31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="W31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="X31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964273</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964284</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964189</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.1318901296433</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="45">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3314170311424718</v>
+        <v>0.3314170311424692</v>
       </c>
       <c r="H5" t="n">
-        <v>3.394124670187841</v>
+        <v>3.394124670187813</v>
       </c>
       <c r="I5" t="n">
-        <v>12.77695509312016</v>
+        <v>12.77695509312005</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1286062469284</v>
+        <v>28.12860624692817</v>
       </c>
       <c r="K5" t="n">
-        <v>42.15748917518924</v>
+        <v>42.1574891751889</v>
       </c>
       <c r="L5" t="n">
-        <v>52.30009314201568</v>
+        <v>52.30009314201525</v>
       </c>
       <c r="M5" t="n">
-        <v>58.1939307695956</v>
+        <v>58.19393076959513</v>
       </c>
       <c r="N5" t="n">
-        <v>59.13556940932916</v>
+        <v>59.13556940932868</v>
       </c>
       <c r="O5" t="n">
-        <v>55.8400413059062</v>
+        <v>55.84004130590575</v>
       </c>
       <c r="P5" t="n">
-        <v>47.65818334957642</v>
+        <v>47.65818334957603</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.78931092178664</v>
+        <v>35.78931092178635</v>
       </c>
       <c r="R5" t="n">
-        <v>20.81837508250332</v>
+        <v>20.81837508250315</v>
       </c>
       <c r="S5" t="n">
-        <v>7.552165597159085</v>
+        <v>7.552165597159024</v>
       </c>
       <c r="T5" t="n">
-        <v>1.450778053826171</v>
+        <v>1.45077805382616</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02651336249139774</v>
+        <v>0.02651336249139753</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1773237445400501</v>
+        <v>0.1773237445400486</v>
       </c>
       <c r="H6" t="n">
-        <v>1.712574059110484</v>
+        <v>1.71257405911047</v>
       </c>
       <c r="I6" t="n">
-        <v>6.105225415085058</v>
+        <v>6.105225415085008</v>
       </c>
       <c r="J6" t="n">
-        <v>16.7532051804264</v>
+        <v>16.75320518042626</v>
       </c>
       <c r="K6" t="n">
-        <v>28.63389606460975</v>
+        <v>28.63389606460952</v>
       </c>
       <c r="L6" t="n">
-        <v>38.50180690111921</v>
+        <v>38.5018069011189</v>
       </c>
       <c r="M6" t="n">
-        <v>44.92979264069601</v>
+        <v>44.92979264069564</v>
       </c>
       <c r="N6" t="n">
-        <v>46.11895055912469</v>
+        <v>46.11895055912431</v>
       </c>
       <c r="O6" t="n">
-        <v>42.18982969326358</v>
+        <v>42.18982969326323</v>
       </c>
       <c r="P6" t="n">
-        <v>33.8610578499329</v>
+        <v>33.86105784993262</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.63522044339306</v>
+        <v>22.63522044339287</v>
       </c>
       <c r="R6" t="n">
-        <v>11.00962687591645</v>
+        <v>11.00962687591636</v>
       </c>
       <c r="S6" t="n">
-        <v>3.293710781259261</v>
+        <v>3.293710781259235</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7147391282118682</v>
+        <v>0.7147391282118624</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0116660358250033</v>
+        <v>0.0116660358250032</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1486622707317359</v>
+        <v>0.1486622707317347</v>
       </c>
       <c r="H7" t="n">
-        <v>1.32174273432398</v>
+        <v>1.32174273432397</v>
       </c>
       <c r="I7" t="n">
-        <v>4.470679923459842</v>
+        <v>4.470679923459806</v>
       </c>
       <c r="J7" t="n">
-        <v>10.51042254073373</v>
+        <v>10.51042254073364</v>
       </c>
       <c r="K7" t="n">
-        <v>17.27185290865077</v>
+        <v>17.27185290865063</v>
       </c>
       <c r="L7" t="n">
-        <v>22.10202523224373</v>
+        <v>22.10202523224355</v>
       </c>
       <c r="M7" t="n">
-        <v>23.30348667479384</v>
+        <v>23.30348667479365</v>
       </c>
       <c r="N7" t="n">
-        <v>22.74938184752103</v>
+        <v>22.74938184752084</v>
       </c>
       <c r="O7" t="n">
-        <v>21.01273623033665</v>
+        <v>21.01273623033648</v>
       </c>
       <c r="P7" t="n">
-        <v>17.98002590740922</v>
+        <v>17.98002590740908</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.44843796100018</v>
+        <v>12.44843796100008</v>
       </c>
       <c r="R7" t="n">
-        <v>6.684396282174235</v>
+        <v>6.68439628217418</v>
       </c>
       <c r="S7" t="n">
-        <v>2.590777936297616</v>
+        <v>2.590777936297595</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6351933385810534</v>
+        <v>0.6351933385810482</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00810885113082197</v>
+        <v>0.008108851130821904</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34369,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>154.3230534491487</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>144.9277431142228</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.17931689231588</v>
+        <v>16.17931689231565</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2130507013734</v>
+        <v>146.2130507013731</v>
       </c>
       <c r="L5" t="n">
-        <v>234.1948927224789</v>
+        <v>234.1948927224784</v>
       </c>
       <c r="M5" t="n">
-        <v>277.3612310351554</v>
+        <v>277.3612310351549</v>
       </c>
       <c r="N5" t="n">
-        <v>267.0694302247224</v>
+        <v>267.0694302247219</v>
       </c>
       <c r="O5" t="n">
-        <v>206.5420111469648</v>
+        <v>206.5420111469644</v>
       </c>
       <c r="P5" t="n">
-        <v>138.2238957657895</v>
+        <v>138.2238957657891</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.79861170724183</v>
+        <v>25.79861170724154</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>16.00661385416854</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>155.2576941028294</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>270.7877724247042</v>
+        <v>270.7877724247039</v>
       </c>
       <c r="M6" t="n">
-        <v>152.1022375746315</v>
+        <v>331.2414836209385</v>
       </c>
       <c r="N6" t="n">
-        <v>331.2414836209392</v>
+        <v>105.0171264560885</v>
       </c>
       <c r="O6" t="n">
-        <v>293.4559045255486</v>
+        <v>293.4559045255483</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>218.3494190755395</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.73073409322063</v>
+        <v>92.73073409322046</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>49.69205049255986</v>
+        <v>49.69205049255969</v>
       </c>
       <c r="M7" t="n">
-        <v>62.88736363663443</v>
+        <v>62.88736363663424</v>
       </c>
       <c r="N7" t="n">
-        <v>66.88155422674961</v>
+        <v>66.88155422674943</v>
       </c>
       <c r="O7" t="n">
-        <v>45.59786414437632</v>
+        <v>45.59786414437615</v>
       </c>
       <c r="P7" t="n">
-        <v>15.25858517230271</v>
+        <v>15.25858517230256</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003109</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35653,22 +35653,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>383.9564222971658</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>353.8818559928188</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>236.5687745713064</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>349.2844000699651</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
@@ -36598,7 +36598,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221117</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.1093984798441</v>
+        <v>40.10939847984405</v>
       </c>
       <c r="K28" t="n">
         <v>179.3040568441891</v>
@@ -36759,19 +36759,19 @@
         <v>277.8158151942071</v>
       </c>
       <c r="M28" t="n">
-        <v>301.9114694932511</v>
+        <v>301.911469493251</v>
       </c>
       <c r="N28" t="n">
         <v>300.8785061198822</v>
       </c>
       <c r="O28" t="n">
-        <v>263.8389798348815</v>
+        <v>263.8389798348814</v>
       </c>
       <c r="P28" t="n">
         <v>205.9852289260793</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.82732828615333</v>
+        <v>66.82732828615327</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.1093984798441</v>
+        <v>40.10939847984405</v>
       </c>
       <c r="K31" t="n">
         <v>179.3040568441891</v>
@@ -36996,19 +36996,19 @@
         <v>277.8158151942071</v>
       </c>
       <c r="M31" t="n">
-        <v>301.9114694932511</v>
+        <v>301.911469493251</v>
       </c>
       <c r="N31" t="n">
         <v>300.8785061198822</v>
       </c>
       <c r="O31" t="n">
-        <v>263.8389798348815</v>
+        <v>263.8389798348814</v>
       </c>
       <c r="P31" t="n">
         <v>205.9852289260793</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.82732828615333</v>
+        <v>66.82732828615327</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2814067694342</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>376.7116330368061</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37315,19 +37315,19 @@
         <v>355.8161167292792</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>532.1645199505923</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>580.7481037750064</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O38" t="n">
-        <v>684.3729624583287</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145247</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2814067694342</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>521.7466306837437</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>386.7755834750029</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2814067694342</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>344.859314094424</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>291.0298521604568</v>
+        <v>484.1095202638012</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961279</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324021</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058687</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
